--- a/result1_1.xlsx
+++ b/result1_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="67">
   <si>
     <t>小麦</t>
   </si>
@@ -142,10 +142,79 @@
     <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
   </si>
   <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 1.0, 'E8': 1.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 1.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 1.0}</t>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.09}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.18, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.3}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.18, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.18, 'E3': 0.18, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.18, 'E13': 0.0, 'E14': 0.0, 'E15': 0.18, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 3.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.18, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.18, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.09, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 1.8, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.18, 'F1': 0.09, 'F2': 0.09, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 3.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.18, 'E5': 0.18, 'E6': 0.0, 'E7': 0.0, 'E8': 0.18, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.18, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 3.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 3.6, 'D7': 0.0, 'D8': 0.0, 'E1': 0.18, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.18, 'E11': 0.18, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 18.0, 'B2': 13.8, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 13.2, 'B9': 0.0, 'B10': 0.0, 'B11': 18.0, 'B12': 0.0, 'B13': 0.0, 'B14': 6.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.18, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.18, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.18, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.09, 'F2': 0.0, 'F3': 0.0, 'F4': 0.09}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 1.8, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.18, 'E7': 0.18, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.18, 'E13': 0.18, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 16.5, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 16.5, 'B8': 13.2, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 3.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.18, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.18, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.18, 'E7': 0.18, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 1.8, 'D5': 0.0, 'D6': 3.6, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.18, 'E12': 0.0, 'E13': 0.0, 'E14': 0.18, 'E15': 0.18, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 24.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 16.5, 'B8': 13.2, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 4.5, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.09, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.18, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.09}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 3.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.09, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.18, 'E2': 0.0, 'E3': 0.0, 'E4': 0.18, 'E5': 0.18, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.18, 'E10': 0.18, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.18, 'E13': 0.18, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.09, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
   </si>
 </sst>
 </file>
@@ -592,22 +661,22 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -621,7 +690,7 @@
         <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>41</v>
@@ -630,7 +699,7 @@
         <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
         <v>41</v>
@@ -667,7 +736,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
@@ -676,13 +745,13 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
         <v>41</v>
@@ -699,16 +768,16 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
         <v>41</v>
@@ -719,25 +788,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1115,13 +1184,13 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="G24" t="s">
         <v>41</v>
@@ -1343,25 +1412,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1551,25 +1620,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1577,25 +1646,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/result1_1.xlsx
+++ b/result1_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="56">
   <si>
     <t>小麦</t>
   </si>
@@ -142,79 +142,46 @@
     <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
   </si>
   <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.09}</t>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.3}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.18, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.09, 'F2': 0.09, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.18, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.18, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.18, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.09, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.18, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.18, 'E14': 0.0, 'E15': 0.0, 'E16': 0.18, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 13.8, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 7.5, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.09, 'F2': 0.09, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.18, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.18, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.18, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.18, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.18, 'E12': 0.18, 'E13': 0.0, 'E14': 0.0, 'E15': 0.18, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
   </si>
   <si>
     <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.18, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
   </si>
   <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.3}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.18, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.18, 'E3': 0.18, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.18, 'E13': 0.0, 'E14': 0.0, 'E15': 0.18, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 3.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.18, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.18, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.09, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 1.8, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.18, 'F1': 0.09, 'F2': 0.09, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 3.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.18, 'E5': 0.18, 'E6': 0.0, 'E7': 0.0, 'E8': 0.18, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.18, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 3.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 3.6, 'D7': 0.0, 'D8': 0.0, 'E1': 0.18, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.18, 'E11': 0.18, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 18.0, 'B2': 13.8, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 13.2, 'B9': 0.0, 'B10': 0.0, 'B11': 18.0, 'B12': 0.0, 'B13': 0.0, 'B14': 6.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.18, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.18, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.18, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.09, 'F2': 0.0, 'F3': 0.0, 'F4': 0.09}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 1.8, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.18, 'E7': 0.18, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.18, 'E13': 0.18, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 16.5, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 16.5, 'B8': 13.2, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 3.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.18, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.18, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.18, 'E7': 0.18, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 1.8, 'D5': 0.0, 'D6': 3.6, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.18, 'E12': 0.0, 'E13': 0.0, 'E14': 0.18, 'E15': 0.18, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 24.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 16.5, 'B8': 13.2, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 4.5, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.09, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.18, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.09}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 3.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.09, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.18, 'E2': 0.0, 'E3': 0.0, 'E4': 0.18, 'E5': 0.18, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.18, 'E10': 0.18, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.18, 'E13': 0.18, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.09, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 18.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
   </si>
 </sst>
 </file>
@@ -661,22 +628,22 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -687,19 +654,19 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
         <v>41</v>
@@ -736,22 +703,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
         <v>41</v>
@@ -765,19 +732,19 @@
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
         <v>41</v>
@@ -788,25 +755,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
         <v>54</v>
       </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" t="s">
-        <v>65</v>
-      </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1155,7 +1122,7 @@
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
@@ -1181,16 +1148,16 @@
         <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
         <v>41</v>
@@ -1412,25 +1379,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1620,25 +1587,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1646,25 +1613,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/result1_1.xlsx
+++ b/result1_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="60">
   <si>
     <t>小麦</t>
   </si>
@@ -139,49 +139,61 @@
     <t>菠菜</t>
   </si>
   <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.3}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.18, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.09, 'F2': 0.09, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.18, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.18, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.18, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.09, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.18, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.18, 'E14': 0.0, 'E15': 0.0, 'E16': 0.18, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 13.8, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 7.5, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.09, 'F2': 0.09, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.18, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.18, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.18, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.18, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.18, 'E12': 0.18, 'E13': 0.0, 'E14': 0.0, 'E15': 0.18, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.18, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 18.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 30.0}, 'D2': {'第二季': 20.0}, 'D3': {'第二季': 28.0}, 'D4': {'第二季': 12.0}, 'D5': {'第二季': 20.0}, 'D6': {'第二季': 24.0}, 'D7': {'第二季': 22.0}, 'D8': {'第二季': 20.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 1.2}, 'F2': {'第二季': 1.2}, 'F3': {'第二季': 1.2}, 'F4': {'第二季': 1.2}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 12.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 5.4}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 16.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 13.6}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 12.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 4.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 7.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 11.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 10.0}, 'B10': {'第二季': 5.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 9.0}, 'B13': {'第二季': 7.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 3.0}, 'C2': {'第二季': 2.6}, 'C3': {'第二季': 3.0}, 'C4': {'第二季': 3.6}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 4.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 11.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 14.4}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 11.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 9.2}, 'B3': {'第二季': 8.0}, 'B4': {'第二季': 5.6}, 'B5': {'第二季': 5.0}, 'B6': {'第二季': 17.2}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 8.8}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 8.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 2.6}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 3.6}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 7.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 4.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 13.6}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 11.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 12.0}, 'B2': {'第二季': 9.2}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 5.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 3.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 3.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 11.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 14.4}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 5.6}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 8.8}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 5.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 7.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 16.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 17.2}, 'B7': {'第二季': 11.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 12.0}, 'B12': {'第二季': 9.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 4.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 5.4}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 10.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
   </si>
 </sst>
 </file>
@@ -628,7 +640,7 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>41</v>
@@ -640,7 +652,7 @@
         <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
         <v>41</v>
@@ -654,7 +666,7 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
@@ -663,10 +675,10 @@
         <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
         <v>41</v>
@@ -706,19 +718,19 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
         <v>41</v>
@@ -732,16 +744,16 @@
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
         <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
         <v>41</v>
@@ -758,7 +770,7 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
@@ -767,10 +779,10 @@
         <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
         <v>41</v>
@@ -1093,25 +1105,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1122,16 +1134,16 @@
         <v>41</v>
       </c>
       <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
         <v>48</v>
       </c>
-      <c r="D23" t="s">
-        <v>41</v>
-      </c>
       <c r="E23" t="s">
         <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
         <v>41</v>
@@ -1148,16 +1160,16 @@
         <v>41</v>
       </c>
       <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
         <v>49</v>
       </c>
-      <c r="D24" t="s">
-        <v>41</v>
-      </c>
       <c r="E24" t="s">
         <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G24" t="s">
         <v>41</v>
@@ -1223,25 +1235,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1385,19 +1397,19 @@
         <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H33" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1457,25 +1469,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1587,25 +1599,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:8">

--- a/result1_1.xlsx
+++ b/result1_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="73">
   <si>
     <t>小麦</t>
   </si>
@@ -139,61 +139,100 @@
     <t>菠菜</t>
   </si>
   <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 30.0}, 'D2': {'第二季': 20.0}, 'D3': {'第二季': 28.0}, 'D4': {'第二季': 12.0}, 'D5': {'第二季': 20.0}, 'D6': {'第二季': 24.0}, 'D7': {'第二季': 22.0}, 'D8': {'第二季': 20.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 1.2}, 'F2': {'第二季': 1.2}, 'F3': {'第二季': 1.2}, 'F4': {'第二季': 1.2}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 12.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 5.4}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 16.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 13.6}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 12.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 4.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 7.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 11.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 10.0}, 'B10': {'第二季': 5.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 9.0}, 'B13': {'第二季': 7.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 3.0}, 'C2': {'第二季': 2.6}, 'C3': {'第二季': 3.0}, 'C4': {'第二季': 3.6}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 4.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 11.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 14.4}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 11.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 9.2}, 'B3': {'第二季': 8.0}, 'B4': {'第二季': 5.6}, 'B5': {'第二季': 5.0}, 'B6': {'第二季': 17.2}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 8.8}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 8.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 2.6}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 3.6}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 7.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 4.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 13.6}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 11.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 12.0}, 'B2': {'第二季': 9.2}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 5.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 3.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 3.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 11.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 14.4}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 5.6}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 8.8}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 5.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 7.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 16.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 17.2}, 'B7': {'第二季': 11.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 12.0}, 'B12': {'第二季': 9.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 4.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 5.4}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 10.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 80.0, '第二季': 0.0}, 'A2': {'第一季': 55.0, '第二季': 0.0}, 'A3': {'第一季': 35.0, '第二季': 0.0}, 'A4': {'第一季': 72.0, '第二季': 0.0}, 'A5': {'第一季': 68.0, '第二季': 0.0}, 'A6': {'第一季': 55.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 60.0, '第二季': 0.0}, 'B2': {'第一季': 46.0, '第二季': 0.0}, 'B3': {'第一季': 40.0, '第二季': 0.0}, 'B4': {'第一季': 28.0, '第二季': 0.0}, 'B5': {'第一季': 25.0, '第二季': 0.0}, 'B6': {'第一季': 86.0, '第二季': 0.0}, 'B7': {'第一季': 55.0, '第二季': 0.0}, 'B8': {'第一季': 44.0, '第二季': 0.0}, 'B9': {'第一季': 50.0, '第二季': 0.0}, 'B10': {'第一季': 25.0, '第二季': 0.0}, 'B11': {'第一季': 60.0, '第二季': 0.0}, 'B12': {'第一季': 45.0, '第二季': 0.0}, 'B13': {'第一季': 35.0, '第二季': 0.0}, 'B14': {'第一季': 20.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 15.0, '第二季': 0.0}, 'C2': {'第一季': 13.0, '第二季': 0.0}, 'C3': {'第一季': 15.0, '第二季': 0.0}, 'C4': {'第一季': 18.0, '第二季': 0.0}, 'C5': {'第一季': 27.0, '第二季': 0.0}, 'C6': {'第一季': 20.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 30.0}, 'D2': {'第一季': 0.0, '第二季': 20.0}, 'D3': {'第一季': 0.0, '第二季': 28.0}, 'D4': {'第一季': 0.0, '第二季': 12.0}, 'D5': {'第一季': 0.0, '第二季': 20.0}, 'D6': {'第一季': 0.0, '第二季': 24.0}, 'D7': {'第一季': 0.0, '第二季': 22.0}, 'D8': {'第一季': 0.0, '第二季': 20.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 30.0, '第二季': 0.0}, 'D2': {'第一季': 20.0, '第二季': 0.0}, 'D3': {'第一季': 28.0, '第二季': 0.0}, 'D4': {'第一季': 12.0, '第二季': 0.0}, 'D5': {'第一季': 20.0, '第二季': 0.0}, 'D6': {'第一季': 24.0, '第二季': 0.0}, 'D7': {'第一季': 22.0, '第二季': 0.0}, 'D8': {'第一季': 20.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 1.2}, 'E2': {'第一季': 0.0, '第二季': 1.2}, 'E3': {'第一季': 0.0, '第二季': 1.2}, 'E4': {'第一季': 0.0, '第二季': 1.2}, 'E5': {'第一季': 0.0, '第二季': 1.2}, 'E6': {'第一季': 0.0, '第二季': 1.2}, 'E7': {'第一季': 0.0, '第二季': 1.2}, 'E8': {'第一季': 0.0, '第二季': 1.2}, 'E9': {'第一季': 0.0, '第二季': 1.2}, 'E10': {'第一季': 0.0, '第二季': 1.2}, 'E11': {'第一季': 0.0, '第二季': 1.2}, 'E12': {'第一季': 0.0, '第二季': 1.2}, 'E13': {'第一季': 0.0, '第二季': 1.2}, 'E14': {'第一季': 0.0, '第二季': 1.2}, 'E15': {'第一季': 0.0, '第二季': 1.2}, 'E16': {'第一季': 0.0, '第二季': 1.2}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 1.2, '第二季': 0.0}, 'E2': {'第一季': 1.2, '第二季': 0.0}, 'E3': {'第一季': 1.2, '第二季': 0.0}, 'E4': {'第一季': 1.2, '第二季': 0.0}, 'E5': {'第一季': 1.2, '第二季': 0.0}, 'E6': {'第一季': 1.2, '第二季': 0.0}, 'E7': {'第一季': 1.2, '第二季': 0.0}, 'E8': {'第一季': 1.2, '第二季': 0.0}, 'E9': {'第一季': 1.2, '第二季': 0.0}, 'E10': {'第一季': 1.2, '第二季': 0.0}, 'E11': {'第一季': 1.2, '第二季': 0.0}, 'E12': {'第一季': 1.2, '第二季': 0.0}, 'E13': {'第一季': 1.2, '第二季': 0.0}, 'E14': {'第一季': 1.2, '第二季': 0.0}, 'E15': {'第一季': 1.2, '第二季': 0.0}, 'E16': {'第一季': 1.2, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 1.2}, 'F2': {'第一季': 0.0, '第二季': 1.2}, 'F3': {'第一季': 0.0, '第二季': 1.2}, 'F4': {'第一季': 0.0, '第二季': 1.2}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 1.2, '第二季': 0.0}, 'F2': {'第一季': 1.2, '第二季': 0.0}, 'F3': {'第一季': 1.2, '第二季': 0.0}, 'F4': {'第一季': 1.2, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 12.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 30.0, '第二季': 0.0}, 'D2': {'第一季': 20.0, '第二季': 0.0}, 'D3': {'第一季': 28.0, '第二季': 0.0}, 'D4': {'第一季': 12.0, '第二季': 0.0}, 'D5': {'第一季': 20.0, '第二季': 0.0}, 'D6': {'第一季': 24.0, '第二季': 0.0}, 'D7': {'第一季': 22.0, '第二季': 0.0}, 'D8': {'第一季': 20.0, '第二季': 0.0}, 'E1': {'第一季': 0.24, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.24, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.24, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.24, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.24, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.96, '第二季': 0.0}, 'E2': {'第一季': 1.2, '第二季': 0.0}, 'E3': {'第一季': 0.96, '第二季': 0.0}, 'E4': {'第一季': 1.2, '第二季': 0.0}, 'E5': {'第一季': 1.2, '第二季': 0.0}, 'E6': {'第一季': 0.96, '第二季': 0.0}, 'E7': {'第一季': 1.2, '第二季': 0.0}, 'E8': {'第一季': 1.2, '第二季': 0.0}, 'E9': {'第一季': 1.2, '第二季': 0.0}, 'E10': {'第一季': 1.2, '第二季': 0.0}, 'E11': {'第一季': 1.2, '第二季': 0.0}, 'E12': {'第一季': 1.2, '第二季': 0.0}, 'E13': {'第一季': 1.2, '第二季': 0.0}, 'E14': {'第一季': 1.2, '第二季': 0.0}, 'E15': {'第一季': 1.2, '第二季': 0.0}, 'E16': {'第一季': 0.96, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 1.2}, 'F2': {'第一季': 0.0, '第二季': 1.2}, 'F3': {'第一季': 0.0, '第二季': 1.2}, 'F4': {'第一季': 0.0, '第二季': 1.2}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 1.2, '第二季': 0.0}, 'F2': {'第一季': 0.96, '第二季': 0.0}, 'F3': {'第一季': 1.2, '第二季': 0.0}, 'F4': {'第一季': 1.2, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 5.4}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 16.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 13.6}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 12.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 4.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 30.0, '第二季': 0.0}, 'D2': {'第一季': 20.0, '第二季': 0.0}, 'D3': {'第一季': 28.0, '第二季': 0.0}, 'D4': {'第一季': 12.0, '第二季': 0.0}, 'D5': {'第一季': 20.0, '第二季': 0.0}, 'D6': {'第一季': 24.0, '第二季': 0.0}, 'D7': {'第一季': 22.0, '第二季': 0.0}, 'D8': {'第一季': 20.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.24, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.24, '第二季': 0.0}, 'E5': {'第一季': 0.24, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.24, '第二季': 0.0}, 'E8': {'第一季': 0.24, '第二季': 0.0}, 'E9': {'第一季': 0.24, '第二季': 0.0}, 'E10': {'第一季': 0.24, '第二季': 0.0}, 'E11': {'第一季': 0.24, '第二季': 0.0}, 'E12': {'第一季': 0.24, '第二季': 0.0}, 'E13': {'第一季': 0.24, '第二季': 0.0}, 'E14': {'第一季': 0.24, '第二季': 0.0}, 'E15': {'第一季': 0.24, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.24, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.24, '第二季': 0.0}, 'F4': {'第一季': 0.24, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 7.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 11.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 10.0}, 'B10': {'第一季': 0.0, '第二季': 5.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 9.0}, 'B13': {'第一季': 0.0, '第二季': 7.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 3.0}, 'C2': {'第一季': 0.0, '第二季': 2.6}, 'C3': {'第一季': 0.0, '第二季': 3.0}, 'C4': {'第一季': 0.0, '第二季': 3.6}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 4.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 11.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 14.4}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 11.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 9.2}, 'B3': {'第一季': 0.0, '第二季': 8.0}, 'B4': {'第一季': 0.0, '第二季': 5.6}, 'B5': {'第一季': 0.0, '第二季': 5.0}, 'B6': {'第一季': 0.0, '第二季': 17.2}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 8.8}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 1.2, '第二季': 0.0}, 'E2': {'第一季': 0.96, '第二季': 0.0}, 'E3': {'第一季': 1.2, '第二季': 0.0}, 'E4': {'第一季': 0.96, '第二季': 0.0}, 'E5': {'第一季': 0.96, '第二季': 0.0}, 'E6': {'第一季': 1.2, '第二季': 0.0}, 'E7': {'第一季': 0.96, '第二季': 0.0}, 'E8': {'第一季': 0.96, '第二季': 0.0}, 'E9': {'第一季': 0.96, '第二季': 0.0}, 'E10': {'第一季': 0.96, '第二季': 0.0}, 'E11': {'第一季': 0.96, '第二季': 0.0}, 'E12': {'第一季': 0.96, '第二季': 0.0}, 'E13': {'第一季': 0.96, '第二季': 0.0}, 'E14': {'第一季': 0.96, '第二季': 0.0}, 'E15': {'第一季': 0.96, '第二季': 0.0}, 'E16': {'第一季': 1.2, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 1.2}, 'F2': {'第一季': 0.0, '第二季': 1.2}, 'F3': {'第一季': 0.0, '第二季': 1.2}, 'F4': {'第一季': 0.0, '第二季': 1.2}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.96, '第二季': 0.0}, 'F2': {'第一季': 1.2, '第二季': 0.0}, 'F3': {'第一季': 0.96, '第二季': 0.0}, 'F4': {'第一季': 0.96, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 8.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 2.6}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 3.6}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 7.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 4.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 13.6}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 11.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 12.0}, 'B2': {'第一季': 0.0, '第二季': 9.2}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 5.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 3.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 3.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 30.0, '第二季': 0.0}, 'D2': {'第一季': 20.0, '第二季': 0.0}, 'D3': {'第一季': 28.0, '第二季': 0.0}, 'D4': {'第一季': 12.0, '第二季': 0.0}, 'D5': {'第一季': 20.0, '第二季': 0.0}, 'D6': {'第一季': 24.0, '第二季': 0.0}, 'D7': {'第一季': 22.0, '第二季': 0.0}, 'D8': {'第一季': 20.0, '第二季': 0.0}, 'E1': {'第一季': 0.24, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.24, '第二季': 0.0}, 'E4': {'第一季': 0.24, '第二季': 0.0}, 'E5': {'第一季': 0.24, '第二季': 0.0}, 'E6': {'第一季': 0.24, '第二季': 0.0}, 'E7': {'第一季': 0.24, '第二季': 0.0}, 'E8': {'第一季': 0.24, '第二季': 0.0}, 'E9': {'第一季': 0.24, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.24, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.24, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.24, '第二季': 0.0}, 'E16': {'第一季': 0.24, '第二季': 0.0}, 'F1': {'第一季': 0.24, '第二季': 0.0}, 'F2': {'第一季': 0.24, '第二季': 0.0}, 'F3': {'第一季': 0.24, '第二季': 0.0}, 'F4': {'第一季': 0.24, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 11.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 14.4}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 5.6}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 8.8}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 5.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 7.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 16.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 17.2}, 'B7': {'第一季': 0.0, '第二季': 11.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 12.0}, 'B12': {'第一季': 0.0, '第二季': 9.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 4.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 5.4}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.96, '第二季': 0.0}, 'E2': {'第一季': 1.2, '第二季': 0.0}, 'E3': {'第一季': 0.96, '第二季': 0.0}, 'E4': {'第一季': 0.96, '第二季': 0.0}, 'E5': {'第一季': 0.96, '第二季': 0.0}, 'E6': {'第一季': 0.96, '第二季': 0.0}, 'E7': {'第一季': 0.96, '第二季': 0.0}, 'E8': {'第一季': 0.96, '第二季': 0.0}, 'E9': {'第一季': 0.96, '第二季': 0.0}, 'E10': {'第一季': 1.2, '第二季': 0.0}, 'E11': {'第一季': 0.96, '第二季': 0.0}, 'E12': {'第一季': 1.2, '第二季': 0.0}, 'E13': {'第一季': 0.96, '第二季': 0.0}, 'E14': {'第一季': 1.2, '第二季': 0.0}, 'E15': {'第一季': 0.96, '第二季': 0.0}, 'E16': {'第一季': 0.96, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 1.2}, 'F2': {'第一季': 0.0, '第二季': 1.2}, 'F3': {'第一季': 0.0, '第二季': 1.2}, 'F4': {'第一季': 0.0, '第二季': 1.2}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.96, '第二季': 0.0}, 'F2': {'第一季': 0.96, '第二季': 0.0}, 'F3': {'第一季': 0.96, '第二季': 0.0}, 'F4': {'第一季': 0.96, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 30.0, '第二季': 0.0}, 'D2': {'第一季': 20.0, '第二季': 0.0}, 'D3': {'第一季': 28.0, '第二季': 0.0}, 'D4': {'第一季': 12.0, '第二季': 0.0}, 'D5': {'第一季': 20.0, '第二季': 0.0}, 'D6': {'第一季': 24.0, '第二季': 0.0}, 'D7': {'第一季': 22.0, '第二季': 0.0}, 'D8': {'第一季': 20.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.24, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.24, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.24, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.24, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 10.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 1.2, '第二季': 0.0}, 'E2': {'第一季': 0.96, '第二季': 0.0}, 'E3': {'第一季': 1.2, '第二季': 0.0}, 'E4': {'第一季': 1.2, '第二季': 0.0}, 'E5': {'第一季': 1.2, '第二季': 0.0}, 'E6': {'第一季': 1.2, '第二季': 0.0}, 'E7': {'第一季': 1.2, '第二季': 0.0}, 'E8': {'第一季': 1.2, '第二季': 0.0}, 'E9': {'第一季': 1.2, '第二季': 0.0}, 'E10': {'第一季': 0.96, '第二季': 0.0}, 'E11': {'第一季': 1.2, '第二季': 0.0}, 'E12': {'第一季': 0.96, '第二季': 0.0}, 'E13': {'第一季': 1.2, '第二季': 0.0}, 'E14': {'第一季': 0.96, '第二季': 0.0}, 'E15': {'第一季': 1.2, '第二季': 0.0}, 'E16': {'第一季': 1.2, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 1.2}, 'F2': {'第一季': 0.0, '第二季': 1.2}, 'F3': {'第一季': 0.0, '第二季': 1.2}, 'F4': {'第一季': 0.0, '第二季': 1.2}}</t>
   </si>
 </sst>
 </file>
@@ -611,25 +650,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -675,7 +714,7 @@
         <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
         <v>41</v>
@@ -721,13 +760,13 @@
         <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
         <v>41</v>
@@ -747,13 +786,13 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
         <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
         <v>41</v>
@@ -779,7 +818,7 @@
         <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
         <v>41</v>
@@ -819,25 +858,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -949,25 +988,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1105,25 +1144,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1131,25 +1170,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1163,13 +1202,13 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
         <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G24" t="s">
         <v>41</v>
@@ -1235,25 +1274,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1397,19 +1436,19 @@
         <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1469,25 +1508,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="H36" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1547,25 +1586,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:8">
